--- a/analisis_contable_modelo.xlsx
+++ b/analisis_contable_modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Documentos\Scripts\Python\finanzas_economia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6F824C-2A43-421F-AEAC-1EEF55D5FE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E9444B-7681-49CC-987B-004D16DF5710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7F7C7DDE-4A84-4B5E-9981-2EA457596BC1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>activo_total</t>
   </si>
@@ -45,9 +45,6 @@
     <t>efectivo_y_equivalentes</t>
   </si>
   <si>
-    <t>inventario</t>
-  </si>
-  <si>
     <t>otras_provisiones</t>
   </si>
   <si>
@@ -87,7 +84,13 @@
     <t>activo_corriente</t>
   </si>
   <si>
-    <t>Periodo</t>
+    <t>periodo</t>
+  </si>
+  <si>
+    <t>inventarios</t>
+  </si>
+  <si>
+    <t>propiedades_planta_equipo</t>
   </si>
 </sst>
 </file>
@@ -177,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,6 +199,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -511,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7350D97D-CD3B-42A3-9E89-792F8762CBFA}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,26 +530,27 @@
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="15" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="10" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="10" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -551,52 +559,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="O1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2015</v>
       </c>
@@ -610,7 +621,7 @@
         <v>55606</v>
       </c>
       <c r="E2" s="5">
-        <v>1720</v>
+        <v>480478</v>
       </c>
       <c r="F2" s="5">
         <v>160814</v>
@@ -623,38 +634,41 @@
         <v>676520</v>
       </c>
       <c r="I2" s="7">
+        <v>1720</v>
+      </c>
+      <c r="J2" s="7">
         <v>91250</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="7">
         <v>95162</v>
       </c>
-      <c r="K2" s="7">
-        <f t="shared" ref="K2:K7" si="1">SUM(I2,J2)</f>
+      <c r="L2" s="7">
+        <f t="shared" ref="L2:L7" si="1">SUM(J2,K2)</f>
         <v>186412</v>
       </c>
-      <c r="L2" s="9">
+      <c r="M2" s="9">
         <v>490108</v>
       </c>
-      <c r="M2" s="11">
+      <c r="N2" s="11">
         <v>300096</v>
       </c>
-      <c r="N2" s="11">
+      <c r="O2" s="11">
         <v>-260631</v>
       </c>
-      <c r="O2" s="11">
+      <c r="P2" s="11">
         <v>-6781</v>
       </c>
-      <c r="P2" s="11">
+      <c r="Q2" s="11">
         <v>64367</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="R2" s="11">
         <v>54273</v>
       </c>
-      <c r="R2" s="11">
+      <c r="S2" s="11">
         <v>45377</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2016</v>
       </c>
@@ -668,7 +682,7 @@
         <v>68779</v>
       </c>
       <c r="E3" s="5">
-        <v>2046</v>
+        <v>475297</v>
       </c>
       <c r="F3" s="5">
         <v>179748</v>
@@ -681,38 +695,41 @@
         <v>720508</v>
       </c>
       <c r="I3" s="7">
+        <v>2046</v>
+      </c>
+      <c r="J3" s="7">
         <v>97980</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>84688</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <f t="shared" si="1"/>
         <v>182668</v>
       </c>
-      <c r="L3" s="9">
+      <c r="M3" s="9">
         <v>537840</v>
       </c>
-      <c r="M3" s="11">
+      <c r="N3" s="11">
         <v>377322</v>
       </c>
-      <c r="N3" s="11">
+      <c r="O3" s="11">
         <v>-327909</v>
       </c>
-      <c r="O3" s="11">
+      <c r="P3" s="11">
         <v>-4598</v>
       </c>
-      <c r="P3" s="11">
+      <c r="Q3" s="11">
         <v>86085</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="R3" s="11">
         <v>90014</v>
       </c>
-      <c r="R3" s="11">
+      <c r="S3" s="11">
         <v>64644</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2017</v>
       </c>
@@ -726,7 +743,7 @@
         <v>71954</v>
       </c>
       <c r="E4" s="5">
-        <v>2170</v>
+        <v>471481</v>
       </c>
       <c r="F4" s="5">
         <v>187687</v>
@@ -739,38 +756,41 @@
         <v>729051</v>
       </c>
       <c r="I4" s="7">
+        <v>2170</v>
+      </c>
+      <c r="J4" s="7">
         <v>87550</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>111190</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <f t="shared" si="1"/>
         <v>198740</v>
       </c>
-      <c r="L4" s="9">
+      <c r="M4" s="9">
         <v>530311</v>
       </c>
-      <c r="M4" s="11">
+      <c r="N4" s="11">
         <v>271289</v>
       </c>
-      <c r="N4" s="11">
+      <c r="O4" s="11">
         <v>-237396</v>
       </c>
-      <c r="O4" s="11">
+      <c r="P4" s="11">
         <v>-2720</v>
       </c>
-      <c r="P4" s="11">
+      <c r="Q4" s="11">
         <v>9959</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="R4" s="11">
         <v>13933</v>
       </c>
-      <c r="R4" s="11">
+      <c r="S4" s="11">
         <v>11171</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2018</v>
       </c>
@@ -784,7 +804,7 @@
         <v>57981</v>
       </c>
       <c r="E5" s="5">
-        <v>2346</v>
+        <v>455487</v>
       </c>
       <c r="F5" s="5">
         <v>177095</v>
@@ -797,38 +817,41 @@
         <v>749603</v>
       </c>
       <c r="I5" s="7">
+        <v>2346</v>
+      </c>
+      <c r="J5" s="7">
         <v>114020</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>91868</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <f t="shared" si="1"/>
         <v>205888</v>
       </c>
-      <c r="L5" s="9">
+      <c r="M5" s="9">
         <v>543715</v>
       </c>
-      <c r="M5" s="11">
+      <c r="N5" s="11">
         <v>259742</v>
       </c>
-      <c r="N5" s="11">
+      <c r="O5" s="11">
         <v>-224044</v>
       </c>
-      <c r="O5" s="11">
+      <c r="P5" s="11">
         <v>-3606</v>
       </c>
-      <c r="P5" s="11">
+      <c r="Q5" s="11">
         <v>17261</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="R5" s="11">
         <v>17581</v>
       </c>
-      <c r="R5" s="11">
+      <c r="S5" s="11">
         <v>15404</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2019</v>
       </c>
@@ -842,7 +865,7 @@
         <v>32524</v>
       </c>
       <c r="E6" s="5">
-        <v>3714</v>
+        <v>441902</v>
       </c>
       <c r="F6" s="5">
         <v>170499</v>
@@ -855,38 +878,41 @@
         <v>765130</v>
       </c>
       <c r="I6" s="7">
+        <v>3714</v>
+      </c>
+      <c r="J6" s="7">
         <v>93553</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>94658</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <f t="shared" si="1"/>
         <v>188211</v>
       </c>
-      <c r="L6" s="9">
+      <c r="M6" s="9">
         <v>576919</v>
       </c>
-      <c r="M6" s="11">
+      <c r="N6" s="11">
         <v>319125</v>
       </c>
-      <c r="N6" s="11">
+      <c r="O6" s="11">
         <v>-251904</v>
       </c>
-      <c r="O6" s="11">
+      <c r="P6" s="11">
         <v>-4923</v>
       </c>
-      <c r="P6" s="11">
+      <c r="Q6" s="11">
         <v>38491</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="R6" s="11">
         <v>45312</v>
       </c>
-      <c r="R6" s="11">
+      <c r="S6" s="11">
         <v>35426</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2020</v>
       </c>
@@ -900,7 +926,7 @@
         <v>48529</v>
       </c>
       <c r="E7" s="5">
-        <v>3281</v>
+        <v>440297</v>
       </c>
       <c r="F7" s="5">
         <v>169859</v>
@@ -913,38 +939,41 @@
         <v>828658</v>
       </c>
       <c r="I7" s="7">
+        <v>3281</v>
+      </c>
+      <c r="J7" s="7">
         <v>111583</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>100918</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <f t="shared" si="1"/>
         <v>212501</v>
       </c>
-      <c r="L7" s="9">
+      <c r="M7" s="9">
         <v>616157</v>
       </c>
-      <c r="M7" s="11">
+      <c r="N7" s="11">
         <v>335672</v>
       </c>
-      <c r="N7" s="11">
+      <c r="O7" s="11">
         <v>-233001</v>
       </c>
-      <c r="O7" s="11">
+      <c r="P7" s="11">
         <v>-3749</v>
       </c>
-      <c r="P7" s="11">
+      <c r="Q7" s="11">
         <v>74934</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="R7" s="11">
         <v>89443</v>
       </c>
-      <c r="R7" s="11">
+      <c r="S7" s="11">
         <v>79544</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -956,15 +985,16 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="11"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -976,15 +1006,16 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="11"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -996,15 +1027,16 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="11"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1016,15 +1048,16 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="11"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1036,15 +1069,16 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="11"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1056,15 +1090,16 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="11"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1076,15 +1111,16 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="11"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1096,15 +1132,16 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="11"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1116,15 +1153,16 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="11"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1136,15 +1174,16 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="11"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="9"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1156,13 +1195,14 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="11"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analisis_contable_modelo.xlsx
+++ b/analisis_contable_modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Documentos\Scripts\Python\finanzas_economia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E9444B-7681-49CC-987B-004D16DF5710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4006498A-F24F-4050-993A-FC81453D9329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7F7C7DDE-4A84-4B5E-9981-2EA457596BC1}"/>
   </bookViews>
@@ -180,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +203,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -521,12 +524,12 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -608,8 +611,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>2015</v>
+      <c r="A2" s="16">
+        <v>42369</v>
       </c>
       <c r="B2" s="5">
         <v>33970</v>
@@ -669,8 +672,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>2016</v>
+      <c r="A3" s="16">
+        <v>42735</v>
       </c>
       <c r="B3" s="5">
         <v>28292</v>
@@ -730,8 +733,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>2017</v>
+      <c r="A4" s="16">
+        <v>43100</v>
       </c>
       <c r="B4" s="5">
         <v>18502</v>
@@ -791,8 +794,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>2018</v>
+      <c r="A5" s="16">
+        <v>43465</v>
       </c>
       <c r="B5" s="5">
         <v>13920</v>
@@ -852,8 +855,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>2019</v>
+      <c r="A6" s="16">
+        <v>43830</v>
       </c>
       <c r="B6" s="5">
         <v>43437</v>
@@ -913,8 +916,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>2020</v>
+      <c r="A7" s="16">
+        <v>44196</v>
       </c>
       <c r="B7" s="5">
         <v>28196</v>
